--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30405AC8-6B0C-4365-BD2B-12978601BC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED7CC5-A5A6-4134-A67C-5FB879EED7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1_Extension" sheetId="3" r:id="rId2"/>
-    <sheet name="FountainManeuvers&amp;ChasingPhase" sheetId="2" r:id="rId3"/>
+    <sheet name="TimeSeries" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="3" r:id="rId2"/>
+    <sheet name="FountainManeuvers&amp;ChasingEps" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -48,9 +48,6 @@
     <t>Events</t>
   </si>
   <si>
-    <t>Fountain Maneuvers in Before Learning</t>
-  </si>
-  <si>
     <t>180-226</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>2300-2328</t>
   </si>
   <si>
-    <t>Fountain Maneuvers in After Learning</t>
-  </si>
-  <si>
     <t>2687-2720</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>3213-3250</t>
-  </si>
-  <si>
-    <t>Chasing Episodes in Before Learning</t>
   </si>
   <si>
     <t>3-47</t>
@@ -144,10 +135,19 @@
     <t>The angular speed of the dolphin</t>
   </si>
   <si>
-    <t>The Euclidean distance between dolphin and fish</t>
+    <t>m</t>
   </si>
   <si>
-    <t>m</t>
+    <t>The euclidean distance between dolphin and fish</t>
+  </si>
+  <si>
+    <t>Fountain maneuvers before learning</t>
+  </si>
+  <si>
+    <t>Fountain maneuvers after learning</t>
+  </si>
+  <si>
+    <t>Chasing episodes before learning</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -71476,20 +71476,23 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -71497,7 +71500,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -71505,10 +71508,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -71516,10 +71519,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -71527,10 +71530,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -71538,10 +71541,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -71549,10 +71552,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -71564,8 +71567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -71585,113 +71588,113 @@
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N22" s="4"/>
     </row>
